--- a/docs/StructureDefinition-BundleRevisarLE.xlsx
+++ b/docs/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T16:26:02-03:00</t>
+    <t>2023-02-22T17:19:22-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BundleRevisarLE.xlsx
+++ b/docs/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T17:19:22-03:00</t>
+    <t>2023-03-02T16:47:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BundleRevisarLE.xlsx
+++ b/docs/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T16:47:17-03:00</t>
+    <t>2023-03-10T16:52:05-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BundleRevisarLE.xlsx
+++ b/docs/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:52:05-03:00</t>
+    <t>2023-03-11T07:17:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BundleRevisarLE.xlsx
+++ b/docs/StructureDefinition-BundleRevisarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-11T07:17:50-03:00</t>
+    <t>2023-04-21T12:02:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1767,17 +1767,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.2890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.1796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.55859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="42.984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.74609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.69140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1786,26 +1786,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="163.2734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.55078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.5859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="168.19140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.515625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="48.66796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="41.43359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="31.1328125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="50.96875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-BundleRevisarLE.xlsx
+++ b/docs/StructureDefinition-BundleRevisarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T12:02:08-04:00</t>
+    <t>2023-05-08T17:35:30-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -572,7 +572,7 @@
     <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:profile}
+    <t xml:space="preserve">profile:resource}
 </t>
   </si>
   <si>
